--- a/Results/SpreadSheets/Language.xlsx
+++ b/Results/SpreadSheets/Language.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="22056" windowHeight="9552" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="22056" windowHeight="9552" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ShoutingLanguagesBar" sheetId="4" r:id="rId1"/>
@@ -203,24 +203,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81336192"/>
-        <c:axId val="81374208"/>
+        <c:axId val="89396736"/>
+        <c:axId val="89426560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81336192"/>
+        <c:axId val="89396736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81374208"/>
+        <c:crossAx val="89426560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81374208"/>
+        <c:axId val="89426560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -228,7 +228,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81336192"/>
+        <c:crossAx val="89396736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -627,25 +627,25 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:overlap val="-25"/>
-        <c:axId val="92307840"/>
-        <c:axId val="92309376"/>
+        <c:axId val="101399936"/>
+        <c:axId val="101409920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92307840"/>
+        <c:axId val="101399936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92309376"/>
+        <c:crossAx val="101409920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92309376"/>
+        <c:axId val="101409920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -653,7 +653,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="92307840"/>
+        <c:crossAx val="101399936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -667,7 +667,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="62" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -678,7 +678,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="62" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -689,7 +689,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
